--- a/log/asdf.xlsx
+++ b/log/asdf.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Time</t>
+    <t>Breath</t>
   </si>
   <si>
-    <t>Breath</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>RRPM</t>
   </si>
   <si>
-    <t>Pressure</t>
+    <t>LRPM</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,128 +400,170 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>11.574000358581543</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2.6369781913615498E-9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.0562177521933336E-5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.337219637941871E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>11.779999732971191</v>
+        <v>-1.6599999740719795E-2</v>
       </c>
       <c r="B3">
-        <v>1.696978699783358E-7</v>
+        <v>10868.6689453125</v>
       </c>
       <c r="C3">
-        <v>1.6802620666567236E-4</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>1.6225827437210683E-7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>12.003999710083008</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1.7470945022068918E-4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.1038551747333258E-5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.4893112039499101E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>12.201999664306641</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1.066410248995453E-8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.7154590636891953E-7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.0558202130114296E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>12.392000198364258</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1.7156050091671204E-7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.1038785487471614E-5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.5350013199698651E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>12.586000442504883</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1.0314627374441443E-8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.2190738014369344E-8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.6613383195362985E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>12.788000106811523</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2.6851307666220237E-6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.6512454454064027E-9</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1.6223999921294308E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>13.003000259399414</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1.6899853653740138E-4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.6078730286371865E-9</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2.5351150068075867E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>13.210000038146973</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1.0663868899030149E-8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.7472066974733025E-4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.014068740090579E-8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
